--- a/Touch_probe/src/form.xlsx
+++ b/Touch_probe/src/form.xlsx
@@ -1,97 +1,171 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13380" windowWidth="19840" xWindow="38600" yWindow="3100"/>
+    <workbookView xWindow="38595" yWindow="3105" windowWidth="15600" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+  <si>
+    <t>INSPECTION SHEET</t>
+  </si>
+  <si>
+    <t>Probe Model</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>Touch Sensor</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TEST CYCLE DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Cycle sequence: X+ X- Z+ Z- touch direction repeated 100times</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>X+</t>
+  </si>
+  <si>
+    <t>X-</t>
+  </si>
+  <si>
+    <t>Y+</t>
+  </si>
+  <si>
+    <t>Y-</t>
+  </si>
+  <si>
+    <t>R(100)=4Micron</t>
+  </si>
+  <si>
+    <t>micron</t>
+  </si>
+  <si>
+    <t>Un direct direction</t>
+  </si>
+  <si>
+    <t>Z-</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Micron</t>
+  </si>
+  <si>
+    <t>TEST OK</t>
+  </si>
+  <si>
+    <t>operator: ML LEE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt formatCode="[$-409]d&quot;-&quot;mmm&quot;-&quot;yy;@" numFmtId="164"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d&quot;-&quot;mmm&quot;-&quot;yy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="HY견고딕"/>
+      <family val="1"/>
       <charset val="129"/>
-      <family val="1"/>
-      <color theme="1"/>
-      <sz val="14"/>
-      <u val="single"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -169,156 +243,125 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="표준" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>54133</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>56365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1047454" cy="1172151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,7 +407,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -416,7 +459,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -610,276 +653,238 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:J13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>INSPECTION SHEET</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Probe Model</t>
-        </is>
-      </c>
-      <c r="D3" s="17" t="n"/>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="F3" s="18" t="n"/>
-      <c r="G3" s="17" t="n"/>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>Serial</t>
-        </is>
-      </c>
-      <c r="I3" s="18" t="n"/>
-      <c r="J3" s="17" t="n"/>
-    </row>
-    <row r="4">
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>Touch Sensor</t>
-        </is>
-      </c>
-      <c r="D4" s="17" t="n"/>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="F4" s="18" t="n"/>
-      <c r="G4" s="17" t="n"/>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="I4" s="18" t="n"/>
-      <c r="J4" s="17" t="n"/>
-    </row>
-    <row r="5">
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="6" s="19">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>TEST CYCLE DESCRIPTION</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Cycle sequence: X+ X- Z+ Z- touch direction repeated 100times</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="6" t="n"/>
-      <c r="H7" s="6" t="n"/>
-      <c r="I7" s="6" t="n"/>
-      <c r="J7" s="6" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>Direction</t>
-        </is>
-      </c>
-      <c r="B8" s="17" t="n"/>
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t>X+</t>
-        </is>
-      </c>
-      <c r="D8" s="17" t="n"/>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t>X-</t>
-        </is>
-      </c>
-      <c r="F8" s="17" t="n"/>
-      <c r="G8" s="7" t="inlineStr">
-        <is>
-          <t>Y+</t>
-        </is>
-      </c>
-      <c r="H8" s="17" t="n"/>
-      <c r="I8" s="7" t="inlineStr">
-        <is>
-          <t>Y-</t>
-        </is>
-      </c>
-      <c r="J8" s="17" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>R(100)=4Micron</t>
-        </is>
-      </c>
-      <c r="B9" s="17" t="n"/>
-      <c r="C9" s="8" t="n">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>micron</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="n">
+      <c r="D3" s="6"/>
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>micron</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="n">
+      <c r="F3" s="8"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>micron</t>
-        </is>
-      </c>
-      <c r="I9" s="8" t="n">
+      <c r="I3" s="8"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="9" t="inlineStr">
-        <is>
-          <t>micron</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>R(100)=4Micron</t>
-        </is>
-      </c>
-      <c r="B10" s="17" t="n"/>
-      <c r="C10" s="10" t="n">
+      <c r="D4" s="6"/>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="18" t="n"/>
-      <c r="E10" s="18" t="n"/>
-      <c r="F10" s="18" t="n"/>
-      <c r="G10" s="13" t="inlineStr">
-        <is>
-          <t>micron</t>
-        </is>
-      </c>
-      <c r="H10" s="18" t="n"/>
-      <c r="I10" s="18" t="n"/>
-      <c r="J10" s="17" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>Un direct direction</t>
-        </is>
-      </c>
-      <c r="B11" s="17" t="n"/>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>Z-</t>
-        </is>
-      </c>
-      <c r="D11" s="18" t="n"/>
-      <c r="E11" s="18" t="n"/>
-      <c r="F11" s="17" t="n"/>
-      <c r="G11" s="7" t="inlineStr">
-        <is>
-          <t>Dia</t>
-        </is>
-      </c>
-      <c r="H11" s="18" t="n"/>
-      <c r="I11" s="18" t="n"/>
-      <c r="J11" s="17" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n"/>
-      <c r="B12" s="17" t="n"/>
-      <c r="C12" s="14" t="inlineStr">
-        <is>
-          <t>Micron</t>
-        </is>
-      </c>
-      <c r="D12" s="18" t="n"/>
-      <c r="E12" s="18" t="n"/>
-      <c r="F12" s="17" t="n"/>
-      <c r="G12" s="14" t="inlineStr">
-        <is>
-          <t>Micron</t>
-        </is>
-      </c>
-      <c r="H12" s="18" t="n"/>
-      <c r="I12" s="18" t="n"/>
-      <c r="J12" s="17" t="n"/>
-    </row>
-    <row customHeight="1" ht="20" r="13" s="19">
-      <c r="A13" s="20">
-        <f>TODAY()</f>
-        <v/>
-      </c>
-      <c r="B13" s="21" t="n"/>
-      <c r="C13" s="21" t="n"/>
-      <c r="D13" s="15" t="inlineStr">
-        <is>
-          <t>TEST OK</t>
-        </is>
-      </c>
-      <c r="E13" s="21" t="n"/>
-      <c r="F13" s="21" t="n"/>
-      <c r="G13" s="21" t="n"/>
-      <c r="H13" s="20" t="inlineStr">
-        <is>
-          <t>operator: ML LEE</t>
-        </is>
-      </c>
-      <c r="I13" s="21" t="n"/>
-      <c r="J13" s="21" t="n"/>
+      <c r="H9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="12">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <f ca="1">TODAY()</f>
+        <v>44423</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
@@ -887,20 +892,15 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="A13:C13"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Touch_probe/src/form.xlsx
+++ b/Touch_probe/src/form.xlsx
@@ -265,40 +265,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -326,7 +326,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>54133</xdr:colOff>
+      <xdr:colOff>326275</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>56365</xdr:rowOff>
     </xdr:to>
@@ -653,7 +653,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -663,56 +663,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="18" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="6"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="6"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H5" t="s">
@@ -720,18 +731,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -748,32 +759,32 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="14" t="s">
+      <c r="H8" s="8"/>
+      <c r="I8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="3">
         <v>1</v>
       </c>
@@ -800,78 +811,97 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="12">
+      <c r="B10" s="8"/>
+      <c r="C10" s="13">
         <v>3</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="13" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="6"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="14" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="6"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="6"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13" s="18">
         <f ca="1">TODAY()</f>
         <v>44423</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
@@ -879,25 +909,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
